--- a/excel/ItAccount.xlsx
+++ b/excel/ItAccount.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\itportal\portalweb\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\itportal\portal\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357D2B88-95BF-4E58-B78E-DD2F1B6EF073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFEB4F8-7779-4ACF-9D32-D930D966C85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8D38D3E-3D70-44EA-9D49-3808D87505ED}"/>
+    <workbookView xWindow="7200" yWindow="4095" windowWidth="21600" windowHeight="11385" xr2:uid="{F8D38D3E-3D70-44EA-9D49-3808D87505ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>name</t>
   </si>
@@ -44,7 +44,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>client code</t>
+    <t>clientNo</t>
+  </si>
+  <si>
+    <t>groupNo</t>
   </si>
 </sst>
 </file>
@@ -396,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A827DD05-D30B-4E82-9F0E-4B8BFF6ECD77}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,6 +420,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/ItAccount.xlsx
+++ b/excel/ItAccount.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gautami\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\08portal\portal\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8702DDD9-8F43-4FC7-BDFB-2726A1C27036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580FC325-87E7-445B-B3DE-C6F0917D1D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5FE939E7-C101-442C-A1C5-9A2F915CCBF2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5FE939E7-C101-442C-A1C5-9A2F915CCBF2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -48,13 +49,44 @@
   </si>
   <si>
     <t>groupNo</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>PAN of the Entity. 10 Characters. All characters will be auto capitalised.</t>
+  </si>
+  <si>
+    <t>Optional. It is used for integration with Practice Management Software</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Password which is used on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>incometax.gov.in/iec/foportal/</t>
+    </r>
+  </si>
+  <si>
+    <t>Name of the Entity. This need not be same as legal name as per PAN. Max 100 Characters.
+This will be used for searching, so you can add Group Prefix for better searching.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,13 +94,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,13 +155,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -391,7 +487,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -401,30 +497,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC95C55-C6FE-4E9D-ABE0-E4329AFD5DAA}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3233E8A4-5764-426E-88C2-0740D88B8AFD}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="76.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="4" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="4" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="4" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="4" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>